--- a/test/data/excel/small.xlsx
+++ b/test/data/excel/small.xlsx
@@ -66,10 +66,10 @@
     <t xml:space="preserve">English strict</t>
   </si>
   <si>
-    <t xml:space="preserve">Spanish2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portuguese2</t>
+    <t xml:space="preserve">Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portuguese</t>
   </si>
   <si>
     <t xml:space="preserve">French</t>
@@ -237,6 +237,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -475,10 +476,10 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -516,7 +517,6 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">

--- a/test/data/excel/small.xlsx
+++ b/test/data/excel/small.xlsx
@@ -424,7 +424,7 @@
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF8D1D75"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -471,15 +471,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF8D1D75"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>

--- a/test/data/excel/small.xlsx
+++ b/test/data/excel/small.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,9 +19,9 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
     <comment ref="H2" authorId="0">
@@ -32,10 +31,9 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Some forms found in cells with entirely the wrong meaning; these often end up as singletons in the cognate sets, which means we should double check all PG singletons, of which there relatively many, at some point -- ZJO</t>
+          <t>Some forms found in cells with entirely the wrong meaning; these often end up as singletons in the cognate sets, which means we should double check all PG singletons, of which there relatively many, at some point -- ZJO</t>
         </r>
       </text>
     </comment>
@@ -46,10 +44,9 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Keep: [teʔiowaa]</t>
+          <t>Keep: [teʔiowaa]</t>
         </r>
       </text>
     </comment>
@@ -58,181 +55,181 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English strict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spanish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portuguese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aché</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguayan Guaraní</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old Paraguayan Guaraní</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaiwá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCP: started strict/lax opportunistically</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZJO: DONE S/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDM: sourced cited from Guasch (1962) are drawn from Montoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECC/ZJO: DONE S/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">um, uma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">un, une</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etakɾã/ [e.ta.'kɾã] (uno; solo){4}; /etakrã/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;peteĩ&gt;(uno){Guasch1962:670}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[petẽˈʔĩ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">one@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dois, duas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/bĩɾõ1/ [mĩ.'ɾõ1] (dos){4}; /mirõ/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;mokõi&gt;(dos){Guasch1962:616}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[mõˈkõj̃]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">two@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">três</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/bɾewi pɨʧa/ [bɾe.'wi pɨ.'ʧa] (trés){4}; /buǰa1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;mbohapy&gt;(tres){Guasch1962:598}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[mbohaˈpɨ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three@</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>English strict</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Aché</t>
+  </si>
+  <si>
+    <t>Paraguayan Guaraní</t>
+  </si>
+  <si>
+    <t>Old Paraguayan Guaraní</t>
+  </si>
+  <si>
+    <t>Kaiwá</t>
+  </si>
+  <si>
+    <t>Curator</t>
+  </si>
+  <si>
+    <t>NCP: started strict/lax opportunistically</t>
+  </si>
+  <si>
+    <t>ZJO: DONE S/L</t>
+  </si>
+  <si>
+    <t>LDM: sourced cited from Guasch (1962) are drawn from Montoya</t>
+  </si>
+  <si>
+    <t>ECC/ZJO: DONE S/L</t>
+  </si>
+  <si>
+    <t>TG100</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>uno</t>
+  </si>
+  <si>
+    <t>um, uma</t>
+  </si>
+  <si>
+    <t>un, une</t>
+  </si>
+  <si>
+    <t>/etakɾã/ [e.ta.'kɾã] (uno; solo){4}; /etakrã/</t>
+  </si>
+  <si>
+    <t>&lt;peteĩ&gt;(uno){Guasch1962:670}</t>
+  </si>
+  <si>
+    <t>[petẽˈʔĩ]</t>
+  </si>
+  <si>
+    <t>one@</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>dos</t>
+  </si>
+  <si>
+    <t>dois, duas</t>
+  </si>
+  <si>
+    <t>deux</t>
+  </si>
+  <si>
+    <t>&lt;mokõi&gt;(dos){Guasch1962:616}</t>
+  </si>
+  <si>
+    <t>[mõˈkõj̃]</t>
+  </si>
+  <si>
+    <t>two@</t>
+  </si>
+  <si>
+    <t>TG200</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>tres</t>
+  </si>
+  <si>
+    <t>três</t>
+  </si>
+  <si>
+    <t>trois</t>
+  </si>
+  <si>
+    <t>/bɾewi pɨʧa/ [bɾe.'wi pɨ.'ʧa] (trés){4}; /buǰa1/</t>
+  </si>
+  <si>
+    <t>&lt;mbohapy&gt;(tres){Guasch1962:598}</t>
+  </si>
+  <si>
+    <t>[mbohaˈpɨ]</t>
+  </si>
+  <si>
+    <t>three@</t>
   </si>
   <si>
     <t xml:space="preserve">four </t>
   </si>
   <si>
-    <t xml:space="preserve">cuatro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quatro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quatre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/gwɨɾa pɨʧã/ [gwɨ.'ɾa pɨ.'ʧa] (cuatro){4} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;irundy&gt;(cuatro){Guasch1962:542}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[iɾũndɨ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">four@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/irõdɨ/ [i.ɾõ.'ndɨ] (la gente se mi subgrupo){4}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cinco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cinq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;po&gt;(cinco, neol.){Guasch1962:113}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[teʔiowaa], [teɲoˈʔa]</t>
+    <t>cuatro</t>
+  </si>
+  <si>
+    <t>quatro</t>
+  </si>
+  <si>
+    <t>quatre</t>
+  </si>
+  <si>
+    <t>&lt;irundy&gt;(cuatro){Guasch1962:542}</t>
+  </si>
+  <si>
+    <t>[iɾũndɨ]</t>
+  </si>
+  <si>
+    <t>four@</t>
+  </si>
+  <si>
+    <t>/irõdɨ/ [i.ɾõ.'ndɨ] (la gente se mi subgrupo){4}</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>cinco</t>
+  </si>
+  <si>
+    <t>cinq</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>&lt;po&gt;(cinco, neol.){Guasch1962:113}</t>
+  </si>
+  <si>
+    <t>[teʔiowaa], [teɲoˈʔa]</t>
+  </si>
+  <si>
+    <t>&lt;pathá % patá % patxiá&gt; (peito) {2:107} (Anexo IV: Guérios 1959)</t>
+  </si>
+  <si>
+    <t>/bĩɾõ1/ [mĩ.'ɾõ1] %[testvariant] (dos){4}; /mirõ/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/gwɨɾa pɨʧã/ [gwɨ.'ɾa pɨ.'ʧa~testvariant] (cuatro){4} </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -240,44 +237,25 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -314,7 +292,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -322,89 +300,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -463,30 +390,319 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+  <a:themeElements>
+    <a:clrScheme name="Larissa">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Larissa">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Larissa">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr>
     <tabColor rgb="FF8D1D75"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="42">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -516,7 +732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" ht="14">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -537,7 +753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" ht="14">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -565,7 +781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" ht="14">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>22</v>
@@ -579,7 +795,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" ht="14">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -597,20 +813,22 @@
         <v>26</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" spans="1:10" ht="14">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -621,38 +839,38 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" ht="14">
       <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -663,83 +881,82 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" ht="14">
       <c r="A9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10">
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/data/excel/small.xlsx
+++ b/test/data/excel/small.xlsx
@@ -114,12 +114,6 @@
     <t>un, une</t>
   </si>
   <si>
-    <t>/etakɾã/ [e.ta.'kɾã] (uno; solo){4}; /etakrã/</t>
-  </si>
-  <si>
-    <t>&lt;peteĩ&gt;(uno){Guasch1962:670}</t>
-  </si>
-  <si>
     <t>[petẽˈʔĩ]</t>
   </si>
   <si>
@@ -223,6 +217,12 @@
   </si>
   <si>
     <t xml:space="preserve">/gwɨɾa pɨʧã/ [gwɨ.'ɾa pɨ.'ʧa~testvariant] (cuatro){4} </t>
+  </si>
+  <si>
+    <t>/etakɾã/ [e.ta.'kɾã] (uno; solo) (test comment) (test comment 2){4}; /etakrã/</t>
+  </si>
+  <si>
+    <t>&lt;peteĩ&gt;(uno){Guasch1962:670} (Test comment 3)</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -771,20 +771,20 @@
         <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -800,35 +800,35 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="I5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -841,36 +841,36 @@
     </row>
     <row r="7" spans="1:10" ht="14">
       <c r="A7" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -883,43 +883,43 @@
     </row>
     <row r="9" spans="1:10" ht="14">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -927,27 +927,27 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/excel/small.xlsx
+++ b/test/data/excel/small.xlsx
@@ -114,9 +114,6 @@
     <t>un, une</t>
   </si>
   <si>
-    <t>[petẽˈʔĩ]</t>
-  </si>
-  <si>
     <t>one@</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>&lt;peteĩ&gt;(uno){Guasch1962:670} (Test comment 3)</t>
+  </si>
+  <si>
+    <t>[petẽˈʔĩ] (NPC: Test procedural comment)</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -771,20 +771,20 @@
         <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -800,35 +800,35 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -841,36 +841,36 @@
     </row>
     <row r="7" spans="1:10" ht="14">
       <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -883,43 +883,43 @@
     </row>
     <row r="9" spans="1:10" ht="14">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -927,27 +927,27 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/excel/small.xlsx
+++ b/test/data/excel/small.xlsx
@@ -216,13 +216,13 @@
     <t xml:space="preserve">/gwɨɾa pɨʧã/ [gwɨ.'ɾa pɨ.'ʧa~testvariant] (cuatro){4} </t>
   </si>
   <si>
-    <t>/etakɾã/ [e.ta.'kɾã] (uno; solo) (test comment) (test comment 2){4}; /etakrã/</t>
-  </si>
-  <si>
     <t>&lt;peteĩ&gt;(uno){Guasch1962:670} (Test comment 3)</t>
   </si>
   <si>
     <t>[petẽˈʔĩ] (NPC: Test procedural comment)</t>
+  </si>
+  <si>
+    <t>/etakɾã/ [e.ta.'kɾã] ~[test_variant with various comments] (uno; solo) (test comment) (test comment 2){4}; /etakrã/</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -771,14 +771,14 @@
         <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14">

--- a/test/data/excel/small.xlsx
+++ b/test/data/excel/small.xlsx
@@ -129,12 +129,6 @@
     <t>deux</t>
   </si>
   <si>
-    <t>&lt;mokõi&gt;(dos){Guasch1962:616}</t>
-  </si>
-  <si>
-    <t>[mõˈkõj̃]</t>
-  </si>
-  <si>
     <t>two@</t>
   </si>
   <si>
@@ -223,6 +217,12 @@
   </si>
   <si>
     <t>/etakɾã/ [e.ta.'kɾã] ~[test_variant with various comments] (uno; solo) (test comment) (test comment 2){4}; /etakrã/</t>
+  </si>
+  <si>
+    <t>&lt;mokõi&gt;(dos){Guasch1962:616} (PCP: Test procedural comment lands in variants)</t>
+  </si>
+  <si>
+    <t>[mõˈkõj̃] (PCP: Procedural comment before real comment) (dos)</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -771,14 +771,14 @@
         <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14">
@@ -813,22 +813,22 @@
         <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -841,36 +841,36 @@
     </row>
     <row r="7" spans="1:10" ht="14">
       <c r="A7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -883,43 +883,43 @@
     </row>
     <row r="9" spans="1:10" ht="14">
       <c r="A9" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -927,27 +927,27 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
